--- a/DATA_goal/Junction_Flooding_124.xlsx
+++ b/DATA_goal/Junction_Flooding_124.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41556.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.23</v>
+        <v>2.12</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.48</v>
+        <v>1.45</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.1</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>44.65</v>
+        <v>4.47</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>36.78</v>
+        <v>3.68</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.71</v>
+        <v>1.67</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>54.48</v>
+        <v>5.45</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>25.71</v>
+        <v>2.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.85</v>
+        <v>1.08</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.67</v>
+        <v>1.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.73</v>
+        <v>1.77</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.54</v>
+        <v>1.85</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.33</v>
+        <v>0.53</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.62</v>
+        <v>1.66</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.3</v>
+        <v>2.33</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>245.59</v>
+        <v>24.56</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>46.25</v>
+        <v>4.62</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>30.55</v>
+        <v>3.06</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>27.06</v>
+        <v>2.71</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.55</v>
+        <v>1.35</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.32</v>
+        <v>1.83</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>48.14</v>
+        <v>4.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.18</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41556.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.09</v>
+        <v>1.01</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.33</v>
+        <v>2.13</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.57</v>
+        <v>1.76</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>33.36</v>
+        <v>3.34</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.93</v>
+        <v>0.89</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z3" s="4" t="n">
         <v>1.56</v>
       </c>
-      <c r="S3" s="4" t="n">
+      <c r="AA3" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>0.89</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>112.87</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>22.21</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>14.56</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>8.93</v>
-      </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.38</v>
+        <v>3.04</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41556.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>22.29</v>
+        <v>2.23</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>16.29</v>
+        <v>1.63</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>48.1</v>
+        <v>4.81</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>39.71</v>
+        <v>3.97</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>65.76000000000001</v>
+        <v>6.58</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>26.99</v>
+        <v>2.7</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.8</v>
+        <v>1.78</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>19.39</v>
+        <v>1.94</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>20.36</v>
+        <v>2.04</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>24.77</v>
+        <v>2.48</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.75</v>
+        <v>1.47</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>258.21</v>
+        <v>25.82</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>48.73</v>
+        <v>4.87</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>16.1</v>
+        <v>1.61</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>32.66</v>
+        <v>3.27</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>17.33</v>
+        <v>1.73</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>32.09</v>
+        <v>3.21</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.88</v>
+        <v>1.49</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>20.3</v>
+        <v>2.03</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>59.5</v>
+        <v>5.95</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>20.13</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41556.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.05</v>
+        <v>1.1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.96</v>
+        <v>0.8</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>23.75</v>
+        <v>2.38</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>19.58</v>
+        <v>1.96</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>37.1</v>
+        <v>3.71</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>10.04</v>
+        <v>1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>8.65</v>
+        <v>0.86</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.41</v>
+        <v>0.74</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>124.31</v>
+        <v>12.43</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>24.3</v>
+        <v>2.43</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.19</v>
+        <v>1.62</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.4</v>
+        <v>1.74</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.05</v>
+        <v>0.71</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.43</v>
+        <v>0.74</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.05</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>33.8</v>
+        <v>3.38</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.43</v>
+        <v>0.44</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41556.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>26.95</v>
+        <v>2.7</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>22.22</v>
+        <v>2.22</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>38.43</v>
+        <v>3.84</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>13.87</v>
+        <v>1.39</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>8.31</v>
+        <v>0.83</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>141.46</v>
+        <v>14.15</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>27.33</v>
+        <v>2.73</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>18.29</v>
+        <v>1.83</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>9.74</v>
+        <v>0.97</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>18.39</v>
+        <v>1.84</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>8.35</v>
+        <v>0.84</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>11.4</v>
+        <v>1.14</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>34.75</v>
+        <v>3.48</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41556.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>22.29</v>
+        <v>2.23</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>48.31</v>
+        <v>4.83</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>39.89</v>
+        <v>3.99</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>66.3</v>
+        <v>6.63</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>26.99</v>
+        <v>2.7</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>17.92</v>
+        <v>1.79</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>19.46</v>
+        <v>1.95</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>20.49</v>
+        <v>2.05</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>24.86</v>
+        <v>2.49</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>14.63</v>
+        <v>1.46</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>258.21</v>
+        <v>25.82</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>48.75</v>
+        <v>4.88</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>16.1</v>
+        <v>1.61</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>32.84</v>
+        <v>3.28</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>17.37</v>
+        <v>1.74</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.43</v>
+        <v>0.24</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>32.44</v>
+        <v>3.24</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>14.22</v>
+        <v>1.42</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>20.42</v>
+        <v>2.04</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>60.11</v>
+        <v>6.01</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>9.09</v>
+        <v>0.91</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>20.13</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41556.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>12.83</v>
+        <v>1.28</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>1.05</v>
+        <v>0.11</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>12.34</v>
+        <v>1.23</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41556.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>20.95</v>
+        <v>2.09</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>15.57</v>
+        <v>1.56</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>45.44</v>
+        <v>4.54</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>37.51</v>
+        <v>3.75</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>16.48</v>
+        <v>1.65</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>59.12</v>
+        <v>5.91</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>25.36</v>
+        <v>2.54</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>11.3</v>
+        <v>1.13</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>16.87</v>
+        <v>1.69</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>18.3</v>
+        <v>1.83</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>19.28</v>
+        <v>1.93</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>16.39</v>
+        <v>1.64</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>23.35</v>
+        <v>2.33</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>13.72</v>
+        <v>1.37</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>242.16</v>
+        <v>24.22</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>45.69</v>
+        <v>4.57</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>15.13</v>
+        <v>1.51</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>30.81</v>
+        <v>3.08</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>29.26</v>
+        <v>2.93</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>13.36</v>
+        <v>1.34</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>19.2</v>
+        <v>1.92</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>53.3</v>
+        <v>5.33</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.56</v>
+        <v>0.86</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>18.92</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41556.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>6.06</v>
+        <v>0.61</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>17.86</v>
+        <v>1.79</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>14.72</v>
+        <v>1.47</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>29.17</v>
+        <v>2.92</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>4.45</v>
+        <v>0.45</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>6.58</v>
+        <v>0.66</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>6.47</v>
+        <v>0.65</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AG10" s="4" t="n">
         <v>0.33</v>
       </c>
-      <c r="T10" s="4" t="n">
-        <v>91.13</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>13.69</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>26.78</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>3.34</v>
-      </c>
       <c r="AH10" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_124.xlsx
+++ b/DATA_goal/Junction_Flooding_124.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +446,10 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -467,7 +467,7 @@
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41556.34027777778</v>
+        <v>44805.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.12</v>
+        <v>1.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.45</v>
+        <v>0.84</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.47</v>
+        <v>2.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.68</v>
+        <v>2.08</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.67</v>
+        <v>0.98</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.45</v>
+        <v>2.92</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.57</v>
+        <v>1.57</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.08</v>
+        <v>0.62</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.67</v>
+        <v>0.91</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.77</v>
+        <v>1.09</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.85</v>
+        <v>1.18</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.53</v>
+        <v>0.33</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.66</v>
+        <v>1.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.33</v>
+        <v>1.39</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.4</v>
+        <v>0.91</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.28</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>24.56</v>
+        <v>14.71</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.62</v>
+        <v>2.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.53</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.06</v>
+        <v>1.8</v>
       </c>
       <c r="X2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>1.59</v>
       </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>2.71</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>1.35</v>
+        <v>0.83</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.22</v>
+        <v>0.77</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.43</v>
+        <v>0.91</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.83</v>
+        <v>1.14</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.81</v>
+        <v>2.64</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.92</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41556.34722222222</v>
+        <v>44805.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.01</v>
+        <v>2.43</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.79</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L3" s="4" t="n">
         <v>2.13</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.86</v>
-      </c>
       <c r="M3" s="4" t="n">
-        <v>0.89</v>
+        <v>2.27</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.62</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.79</v>
+        <v>1.92</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.11</v>
+        <v>2.71</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.64</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>11.29</v>
+        <v>28.45</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.22</v>
+        <v>5.36</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.73</v>
+        <v>1.77</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.46</v>
+        <v>3.57</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.78</v>
+        <v>1.87</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="Z3" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AA3" s="4" t="n">
         <v>1.56</v>
       </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.64</v>
-      </c>
       <c r="AB3" s="4" t="n">
-        <v>0.59</v>
+        <v>1.4</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.65</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.89</v>
+        <v>2.23</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.04</v>
+        <v>6.52</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.98</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.91</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41556.35416666666</v>
+        <v>44805.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.23</v>
+        <v>1.86</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="L4" s="4" t="n">
         <v>1.63</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.94</v>
-      </c>
       <c r="M4" s="4" t="n">
-        <v>2.04</v>
+        <v>1.74</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.74</v>
+        <v>1.47</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.48</v>
+        <v>2.08</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>25.82</v>
+        <v>21.59</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.87</v>
+        <v>4.11</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.61</v>
+        <v>1.35</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.27</v>
+        <v>2.74</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.21</v>
+        <v>2.84</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.27</v>
+        <v>1.07</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.49</v>
+        <v>1.26</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.03</v>
+        <v>1.71</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.95</v>
+        <v>5.35</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.01</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41556.36111111111</v>
+        <v>44805.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.1</v>
+        <v>1.67</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.8</v>
+        <v>1.24</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.38</v>
+        <v>3.66</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.96</v>
+        <v>2.96</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.87</v>
+        <v>1.31</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.71</v>
+        <v>5.24</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.34</v>
+        <v>2.04</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.9</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.87</v>
+        <v>1.32</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.96</v>
+        <v>1.47</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.86</v>
+        <v>1.32</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.23</v>
+        <v>1.87</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.74</v>
+        <v>1.12</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>12.43</v>
+        <v>19.3</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.43</v>
+        <v>3.68</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.8</v>
+        <v>1.21</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.62</v>
+        <v>2.46</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.74</v>
+        <v>2.53</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.71</v>
+        <v>1.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.96</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.74</v>
+        <v>1.12</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1</v>
+        <v>1.54</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.38</v>
+        <v>4.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.68</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41556.36805555555</v>
+        <v>44805.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.25</v>
+        <v>6.64</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.91</v>
+        <v>4.87</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.65</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.7</v>
+        <v>14.63</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.22</v>
+        <v>11.59</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.98</v>
+        <v>5.18</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>3.84</v>
+        <v>24.6</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.51</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.67</v>
+        <v>3.56</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.99</v>
+        <v>5.1</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.09</v>
+        <v>5.86</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.14</v>
+        <v>6.29</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.31</v>
+        <v>1.7</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.98</v>
+        <v>5.26</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.39</v>
+        <v>7.45</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.83</v>
+        <v>4.6</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.38</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>14.15</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.73</v>
+        <v>14.9</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.9</v>
+        <v>4.86</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.83</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.97</v>
+        <v>5.11</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.14</v>
+        <v>0.93</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.84</v>
+        <v>11.49</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.8</v>
+        <v>4.29</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.71</v>
+        <v>3.89</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.84</v>
+        <v>4.56</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.14</v>
+        <v>6.14</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.48</v>
+        <v>22.7</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.5</v>
+        <v>2.66</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41556.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>25.82</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41556.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41556.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>24.22</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41556.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41556.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>1.57</v>
+        <v>6.08</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_124.xlsx
+++ b/DATA_goal/Junction_Flooding_124.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44805.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.42</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.49</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.78</v>
+        <v>27.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.77</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.92</v>
+        <v>29.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.22</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>14.71</v>
+        <v>147.12</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.81</v>
+        <v>28.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.23</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.86</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.65</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.38</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.64</v>
+        <v>26.43</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44805.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.43</v>
+        <v>24.35</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.85</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.32</v>
+        <v>53.24</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.28</v>
+        <v>42.84</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.9</v>
+        <v>19.04</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.13</v>
+        <v>71.25</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.97</v>
+        <v>29.67</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.3</v>
+        <v>12.97</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.91</v>
+        <v>19.08</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.13</v>
+        <v>21.3</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.27</v>
+        <v>22.69</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.71</v>
+        <v>27.12</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.64</v>
+        <v>16.4</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.45</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>28.45</v>
+        <v>284.54</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.36</v>
+        <v>53.59</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.57</v>
+        <v>35.74</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.68</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.56</v>
+        <v>35.59</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.4</v>
+        <v>13.98</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.46</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.23</v>
+        <v>22.31</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.52</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.85</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.21</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44805.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.86</v>
+        <v>18.61</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.74</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.07</v>
+        <v>40.74</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.29</v>
+        <v>32.87</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.57</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.87</v>
+        <v>58.66</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.27</v>
+        <v>22.69</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.64</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.32</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.74</v>
+        <v>17.39</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.08</v>
+        <v>20.78</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.52</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21.59</v>
+        <v>215.87</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.11</v>
+        <v>41.05</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.74</v>
+        <v>27.42</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.34</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.84</v>
+        <v>28.38</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.2</v>
+        <v>11.95</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.68</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.56</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.71</v>
+        <v>17.11</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.35</v>
+        <v>53.53</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.54</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44805.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.71</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.39</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.66</v>
+        <v>36.57</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.96</v>
+        <v>29.62</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.09</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.24</v>
+        <v>52.41</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.04</v>
+        <v>20.36</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.99</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.21</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.68</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.19</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>19.3</v>
+        <v>192.97</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.68</v>
+        <v>36.83</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.46</v>
+        <v>24.65</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.91</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.53</v>
+        <v>25.32</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.24</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.77</v>
+        <v>47.71</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_124.xlsx
+++ b/DATA_goal/Junction_Flooding_124.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,100 +658,100 @@
         <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.42</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.49</v>
+        <v>3.488</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>27.78</v>
+        <v>27.776</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.77</v>
+        <v>20.765</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.19</v>
+        <v>29.191</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.71</v>
+        <v>15.707</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.22</v>
+        <v>6.218</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.112</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.93</v>
+        <v>10.928</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.26</v>
+        <v>3.255</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.87</v>
+        <v>13.871</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>9.122999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.59</v>
+        <v>1.592</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>147.12</v>
+        <v>147.125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>28.07</v>
+        <v>28.067</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18</v>
+        <v>18.004</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.23</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.73</v>
+        <v>2.728</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.86</v>
+        <v>15.858</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.65</v>
+        <v>7.652</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.07</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.38</v>
+        <v>11.378</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.869</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.43</v>
+        <v>26.432</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.96</v>
+        <v>4.957</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.71</v>
+        <v>11.713</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44805.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>24.35</v>
+        <v>24.347</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.85</v>
+        <v>17.851</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.03</v>
+        <v>2.027</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>53.24</v>
+        <v>53.241</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>42.84</v>
+        <v>42.844</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>19.04</v>
+        <v>19.037</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>71.25</v>
+        <v>71.252</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.67</v>
+        <v>29.668</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.97</v>
+        <v>12.974</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>19.08</v>
+        <v>19.078</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>21.3</v>
+        <v>21.298</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>22.69</v>
+        <v>22.691</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.16</v>
+        <v>6.159</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>19.17</v>
+        <v>19.174</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>27.12</v>
+        <v>27.122</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>16.4</v>
+        <v>16.397</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.45</v>
+        <v>1.448</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.248</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>284.54</v>
+        <v>284.537</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>53.59</v>
+        <v>53.586</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.7</v>
+        <v>17.698</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35.74</v>
+        <v>35.742</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.68</v>
+        <v>18.678</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>3.1</v>
+        <v>3.104</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>35.59</v>
+        <v>35.592</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.63</v>
+        <v>15.633</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.98</v>
+        <v>13.976</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.46</v>
+        <v>16.456</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>22.31</v>
+        <v>22.308</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.165</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>65.15000000000001</v>
+        <v>65.152</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>9.85</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>22.13</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44805.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.61</v>
+        <v>18.611</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.74</v>
+        <v>13.739</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.38</v>
+        <v>1.378</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>40.74</v>
+        <v>40.742</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>32.87</v>
+        <v>32.873</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.57</v>
+        <v>14.566</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>58.66</v>
+        <v>58.656</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.69</v>
+        <v>22.687</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>9.973000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.64</v>
+        <v>14.639</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.32</v>
+        <v>16.318</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.39</v>
+        <v>17.394</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.71</v>
+        <v>4.711</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.66</v>
+        <v>14.663</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.78</v>
+        <v>20.781</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.52</v>
+        <v>12.521</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.982</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.878</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>215.87</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>41.05</v>
+        <v>41.052</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.53</v>
+        <v>13.534</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>27.42</v>
+        <v>27.417</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.34</v>
+        <v>14.337</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.31</v>
+        <v>2.313</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>28.38</v>
+        <v>28.384</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.95</v>
+        <v>11.955</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.68</v>
+        <v>10.676</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.56</v>
+        <v>12.558</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.11</v>
+        <v>17.106</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>53.53</v>
+        <v>53.533</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.54</v>
+        <v>7.541</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.92</v>
+        <v>16.921</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>15.19</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44805.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.63</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.81999999999999</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.08</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_124.xlsx
+++ b/DATA_goal/Junction_Flooding_124.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,100 +970,204 @@
         <v>16.71</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.39</v>
+        <v>12.395</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.11</v>
+        <v>1.108</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>36.57</v>
+        <v>36.572</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>29.62</v>
+        <v>29.616</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.09</v>
+        <v>13.092</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>52.41</v>
+        <v>52.406</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>20.36</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.99</v>
+        <v>8.986000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.21</v>
+        <v>13.211</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.66</v>
+        <v>14.658</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.62</v>
+        <v>15.618</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.23</v>
+        <v>4.227</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.16</v>
+        <v>13.159</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.68</v>
+        <v>18.676</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.19</v>
+        <v>11.194</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.762</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.728</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>192.97</v>
+        <v>192.974</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>36.83</v>
+        <v>36.828</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.15</v>
+        <v>12.146</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>24.65</v>
+        <v>24.648</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.91</v>
+        <v>12.906</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.02</v>
+        <v>2.021</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.32</v>
+        <v>25.319</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.73</v>
+        <v>10.728</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.56</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>11.24</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.38</v>
+        <v>15.378</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.535</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>47.71</v>
+        <v>47.715</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.79</v>
+        <v>6.787</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.19</v>
+        <v>15.186</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44805.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>72.81999999999999</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>6.08</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_124.xlsx
+++ b/DATA_goal/Junction_Flooding_124.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,204 +970,100 @@
         <v>16.71</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.395</v>
+        <v>12.39</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.108</v>
+        <v>1.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>36.572</v>
+        <v>36.57</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>29.616</v>
+        <v>29.62</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.092</v>
+        <v>13.09</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>52.406</v>
+        <v>52.41</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>20.36</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.986000000000001</v>
+        <v>8.99</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.211</v>
+        <v>13.21</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.658</v>
+        <v>14.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.618</v>
+        <v>15.62</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.227</v>
+        <v>4.23</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.159</v>
+        <v>13.16</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>18.676</v>
+        <v>18.68</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.194</v>
+        <v>11.19</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.728</v>
+        <v>0.73</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>192.974</v>
+        <v>192.97</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>36.828</v>
+        <v>36.83</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.146</v>
+        <v>12.15</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>24.648</v>
+        <v>24.65</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>12.906</v>
+        <v>12.91</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.021</v>
+        <v>2.02</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.319</v>
+        <v>25.32</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.728</v>
+        <v>10.73</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.558999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>11.24</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.378</v>
+        <v>15.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.535</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>47.715</v>
+        <v>47.71</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.787</v>
+        <v>6.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.186</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44805.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>14.63</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>24.6</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>72.81999999999999</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>6.08</v>
+        <v>15.19</v>
       </c>
     </row>
   </sheetData>
